--- a/RAMYA  EMPLOYEE ANALYSIS.xlsx
+++ b/RAMYA  EMPLOYEE ANALYSIS.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bdba2f12326921df/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{9F0B0CA1-5BE7-4C9A-A7A0-B213D71736F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18736BCF-1C4B-4648-A3BF-6301B72FE213}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{9F0B0CA1-5BE7-4C9A-A7A0-B213D71736F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FCC06FF-601D-4C31-ADEE-EE0A0B454E48}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{358B30CD-D866-456C-96AB-920D0CE483C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{358B30CD-D866-456C-96AB-920D0CE483C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -153,18 +155,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -222,1405 +233,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[RREVANTH EMPLOYEE ANALYSIS.xlsx]Sheet1!PivotTable1</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>EMPLOYEE ATTENDANCE ANALYSES</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15274720592242405"/>
-          <c:y val="9.6270710732618017E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:pattFill prst="narHorz">
-            <a:fgClr>
-              <a:schemeClr val="accent2"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent2"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:pattFill prst="narHorz">
-            <a:fgClr>
-              <a:schemeClr val="accent2"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent2"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:pattFill prst="narHorz">
-            <a:fgClr>
-              <a:schemeClr val="accent2"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent2"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:pattFill prst="narHorz">
-            <a:fgClr>
-              <a:schemeClr val="accent2"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent2"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:pattFill prst="narHorz">
-            <a:fgClr>
-              <a:schemeClr val="accent2"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent2"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:pattFill prst="narHorz">
-            <a:fgClr>
-              <a:schemeClr val="accent2"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent2"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:pattFill prst="narHorz">
-            <a:fgClr>
-              <a:schemeClr val="accent2"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent2"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:spPr>
-          <a:pattFill prst="narHorz">
-            <a:fgClr>
-              <a:schemeClr val="accent2"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent2"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:spPr>
-          <a:pattFill prst="narHorz">
-            <a:fgClr>
-              <a:schemeClr val="accent2"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent2"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of TOTAL W0RKING DAYS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent2"/>
-              </a:innerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$H$3:$H$17</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>AISHWARYA.V</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARJUN.K</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DEEPALAKSHMI.K</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DHANALAKSHMI.M</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOTHI.R</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>KARTHIGA.M</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>KEERTHANA.S</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MUTHU RAMYA.M</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>PARVATHI.H</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>RADHA.M</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>RAMYA.R</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>REVANTH KUMAR.P</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SAMBATH KUMAR.R</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>SATHYA.G</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$3:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>260</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4262-4DD0-8857-FCD72E307A60}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of DAYS WORKED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent4"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent4"/>
-              </a:innerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$H$3:$H$17</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>AISHWARYA.V</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARJUN.K</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DEEPALAKSHMI.K</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DHANALAKSHMI.M</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOTHI.R</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>KARTHIGA.M</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>KEERTHANA.S</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MUTHU RAMYA.M</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>PARVATHI.H</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>RADHA.M</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>RAMYA.R</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>REVANTH KUMAR.P</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SAMBATH KUMAR.R</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>SATHYA.G</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$3:$J$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>211</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-4262-4DD0-8857-FCD72E307A60}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of LEAVE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent6"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent6"/>
-              </a:innerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$H$3:$H$17</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>AISHWARYA.V</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARJUN.K</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DEEPALAKSHMI.K</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DHANALAKSHMI.M</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOTHI.R</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>KARTHIGA.M</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>KEERTHANA.S</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MUTHU RAMYA.M</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>PARVATHI.H</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>RADHA.M</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>RAMYA.R</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>REVANTH KUMAR.P</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SAMBATH KUMAR.R</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>SATHYA.G</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$3:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-4262-4DD0-8857-FCD72E307A60}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
-        <c:axId val="1819179168"/>
-        <c:axId val="1819181088"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1819179168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1819181088"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1819181088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1819179168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.69631934173360077"/>
-          <c:y val="0.59242753940973458"/>
-          <c:w val="0.30368065826639917"/>
-          <c:h val="0.28800013086690973"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[RREVANTH EMPLOYEE ANALYSIS.xlsx]Sheet1!PivotTable1</c:name>
+    <c:name>[RAMYA  EMPLOYEE ANALYSIS.xlsx]Sheet1!PivotTable1</c:name>
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
@@ -2764,6 +1377,1056 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="57"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="58"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="59"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="60"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="61"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="62"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="63"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
       <c:rotX val="15"/>
@@ -2846,6 +2509,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2872,6 +2540,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2898,6 +2571,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2927,6 +2605,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2956,6 +2639,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2985,6 +2673,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3016,6 +2709,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3047,6 +2745,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3078,6 +2781,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -3107,6 +2815,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -3136,6 +2849,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -3165,6 +2883,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -3196,6 +2919,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -3227,6 +2955,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3374,6 +3107,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3400,6 +3138,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3426,6 +3169,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3455,6 +3203,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3484,6 +3237,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3513,6 +3271,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3544,6 +3307,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3575,6 +3343,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3606,6 +3379,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -3635,6 +3413,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -3664,6 +3447,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -3693,6 +3481,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -3724,6 +3517,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -3755,6 +3553,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3902,6 +3705,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3928,6 +3736,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3954,6 +3767,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3983,6 +3801,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4012,6 +3835,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4041,6 +3869,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4072,6 +3905,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -4103,6 +3941,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -4134,6 +3977,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -4163,6 +4011,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -4192,6 +4045,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -4221,6 +4079,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -4252,6 +4115,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -4283,6 +4151,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-D86B-47E3-A055-D84BCD829297}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4510,7 +4383,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4524,7 +4397,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[RREVANTH EMPLOYEE ANALYSIS.xlsx]Sheet1!PivotTable1</c:name>
+    <c:name>[RAMYA  EMPLOYEE ANALYSIS.xlsx]Sheet1!PivotTable1</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -10057,6 +9930,1802 @@
           <c:y val="7.5739224014913223E-3"/>
           <c:w val="0.2182466039543379"/>
           <c:h val="0.88506663939734809"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[RAMYA  EMPLOYEE ANALYSIS.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="20"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>EMPLOYEE ATTENDANCE ANALYSES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15274720592242405"/>
+          <c:y val="9.6270710732618017E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent2"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of TOTAL W0RKING DAYS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$3:$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>AISHWARYA.V</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARJUN.K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DEEPALAKSHMI.K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DHANALAKSHMI.M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOTHI.R</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KARTHIGA.M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KEERTHANA.S</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MUTHU RAMYA.M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PARVATHI.H</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RADHA.M</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RAMYA.R</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>REVANTH KUMAR.P</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SAMBATH KUMAR.R</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SATHYA.G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3E1-4705-B4DA-FA97FE6430E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of DAYS WORKED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$3:$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>AISHWARYA.V</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARJUN.K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DEEPALAKSHMI.K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DHANALAKSHMI.M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOTHI.R</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KARTHIGA.M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KEERTHANA.S</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MUTHU RAMYA.M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PARVATHI.H</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RADHA.M</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RAMYA.R</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>REVANTH KUMAR.P</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SAMBATH KUMAR.R</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SATHYA.G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3E1-4705-B4DA-FA97FE6430E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of LEAVE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent6"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent6"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$3:$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>AISHWARYA.V</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARJUN.K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DEEPALAKSHMI.K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DHANALAKSHMI.M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOTHI.R</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KARTHIGA.M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KEERTHANA.S</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MUTHU RAMYA.M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PARVATHI.H</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RADHA.M</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RAMYA.R</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>REVANTH KUMAR.P</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SAMBATH KUMAR.R</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SATHYA.G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3E1-4705-B4DA-FA97FE6430E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="1819179168"/>
+        <c:axId val="1819181088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1819179168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819181088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1819181088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819179168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69631934173360077"/>
+          <c:y val="0.59242753940973458"/>
+          <c:w val="0.30368065826639917"/>
+          <c:h val="0.28800013086690973"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -11820,47 +13489,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>846818</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>136073</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>117704</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C9DE81-3909-D7DF-6F6B-66FE870612C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -11900,7 +13528,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11921,6 +13549,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D9B17C-83DB-4538-90E9-97A74CED6303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>473982</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15648</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42093E04-89DC-4049-A0F8-96CE775CA24D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12126,7 +13797,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7135E50-0791-48A0-9582-0AA8706F9ECE}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7135E50-0791-48A0-9582-0AA8706F9ECE}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="H2:K17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -12224,7 +13895,7 @@
     <dataField name="Sum of DAYS WORKED" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Sum of LEAVE" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="141">
+  <chartFormats count="192">
     <chartFormat chart="0" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -13868,6 +15539,591 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="32">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="36">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="37">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="38">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="39">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="40">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="41">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="42">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="43">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="44">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="45">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="46">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="47">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="48">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="49">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="56">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="57">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="58">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="59">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="60">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="61">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="62">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="63">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -14184,8 +16440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2141465-64B6-4E40-8C33-7A5BD8819977}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14194,6 +16450,7 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
@@ -14288,13 +16545,13 @@
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <v>260</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>222</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>38</v>
       </c>
     </row>
@@ -14325,13 +16582,13 @@
       <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>260</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>254</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>6</v>
       </c>
     </row>
@@ -14362,13 +16619,13 @@
       <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>260</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>231</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>29</v>
       </c>
     </row>
@@ -14399,13 +16656,13 @@
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>260</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>257</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>3</v>
       </c>
     </row>
@@ -14436,13 +16693,13 @@
       <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>260</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>245</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>15</v>
       </c>
     </row>
@@ -14473,13 +16730,13 @@
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>260</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>222</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>38</v>
       </c>
     </row>
@@ -14510,13 +16767,13 @@
       <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>260</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>213</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9">
         <v>47</v>
       </c>
     </row>
@@ -14547,13 +16804,13 @@
       <c r="H10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>260</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>245</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>15</v>
       </c>
     </row>
@@ -14584,13 +16841,13 @@
       <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11">
         <v>260</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11">
         <v>266</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11">
         <v>-6</v>
       </c>
     </row>
@@ -14621,13 +16878,13 @@
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>260</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>256</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>4</v>
       </c>
     </row>
@@ -14658,13 +16915,13 @@
       <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13">
         <v>260</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13">
         <v>258</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
         <v>2</v>
       </c>
     </row>
@@ -14695,13 +16952,13 @@
       <c r="H14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14">
         <v>260</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>215</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>45</v>
       </c>
     </row>
@@ -14732,13 +16989,13 @@
       <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15">
         <v>260</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15">
         <v>255</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15">
         <v>5</v>
       </c>
     </row>
@@ -14746,13 +17003,13 @@
       <c r="H16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>260</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>211</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
         <v>49</v>
       </c>
     </row>
@@ -14760,40 +17017,51 @@
       <c r="H17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17">
         <v>3640</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17">
         <v>3350</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17">
         <v>290</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="G2:G15">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>55000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>50000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>55000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>50000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B388E22-9754-405A-AC1F-47E40709A949}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A96FFD6-4757-490F-93F5-38B600B048D2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A11:S12"/>
     </sheetView>
   </sheetViews>
@@ -14804,7 +17072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2AA0E0-3697-42C6-9D30-679072177457}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14817,4 +17085,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E0B7A3-7FEE-4ACB-BFE5-103435D2BFAB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>